--- a/ZHF.xlsx
+++ b/ZHF.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/aaron_conway_utoronto_ca/Documents/ZHF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronconway/zhf-review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{22C15CB2-0086-7442-94D3-A9A725B6D748}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FDD8CD04-1D12-1246-BA7B-9DD7B55FF543}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02D168D-9B3A-7B49-937C-B77DC1322030}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{BAD3191A-A87D-5A47-85EF-D60EB8AF4AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -468,7 +469,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
